--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Programming\GitSyncs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89BBDA-EDC1-4EDC-BCD7-658424098FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006AF0C-EBBB-48CB-A04E-45408F1D5F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -80,14 +80,69 @@
   </si>
   <si>
     <t>Alternate the columns</t>
+  </si>
+  <si>
+    <t>Align Projects to the side of about</t>
+  </si>
+  <si>
+    <t>Move Project images into projects</t>
+  </si>
+  <si>
+    <t>Add a border around project images</t>
+  </si>
+  <si>
+    <t>Add skills section</t>
+  </si>
+  <si>
+    <t>add known languages</t>
+  </si>
+  <si>
+    <t>Add software used</t>
+  </si>
+  <si>
+    <t>touchups</t>
+  </si>
+  <si>
+    <t>Size projects page to be even</t>
+  </si>
+  <si>
+    <t>Move Full projects section to Developer Page</t>
+  </si>
+  <si>
+    <t>Change background colour of divs</t>
+  </si>
+  <si>
+    <t>More Professional title</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Clean up code</t>
+  </si>
+  <si>
+    <t>Change single instance classes to ids</t>
+  </si>
+  <si>
+    <t>Remove uncessary css</t>
+  </si>
+  <si>
+    <t>Make title id dependent for colour</t>
+  </si>
+  <si>
+    <t>Use body for universal colour</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,20 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -154,6 +204,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,177 +510,294 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1.2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1.3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="G7">
         <v>2.1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="G8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="G10">
+        <v>3.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>3.1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>3.2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>3.3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="G15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="G16">
+        <v>5.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="G17">
+        <v>5.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>19</v>
+      </c>
+      <c r="G18">
+        <v>5.4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
